--- a/biology/Zoologie/Cherax_quadricarinatus/Cherax_quadricarinatus.xlsx
+++ b/biology/Zoologie/Cherax_quadricarinatus/Cherax_quadricarinatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Écrevisse à pinces rouges
 Cherax quadricarinatus, l’Écrevisse à pinces rouges, est une espèce d'écrevisses d'eau douce de la famille des Parastacidae.
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,9 +553,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette écrevisse se rencontre en Australie et en Papouasie-Nouvelle-Guinée[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette écrevisse se rencontre en Australie et en Papouasie-Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -570,12 +586,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cherax quadricarinatus (von Martens, 1868)[2].
-L'espèce a été initialement classée dans le genre Astacus sous le protonyme Astacus quadricarinatus von Martens, 1868[2],[3].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Écrevisse à pinces rouges[4].
-Cherax quadricarinatus a pour synonyme[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Cherax quadricarinatus (von Martens, 1868).
+L'espèce a été initialement classée dans le genre Astacus sous le protonyme Astacus quadricarinatus von Martens, 1868,.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Écrevisse à pinces rouges.
+Cherax quadricarinatus a pour synonyme :
 Astacus quadricarinatus von Martens, 1868</t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) E. von Martens, « Über eine neue Art und Untergattung der Cyprinoiden, Homaloptera (Octonema) rotundicauda, über einige neue Crustaceen und über die neuholländischen Süsswasserkrebse », Monatsberichte der Königlichen Akademie der Wissenschaften zu Berlin, Physikalisch-mathematische Klasse, Berlin, vol. 1868,‎ 1868, p. 607-619 (lire en ligne, consulté le 30 mars 2024).</t>
         </is>
